--- a/data/dialogues.xlsx
+++ b/data/dialogues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Godot\4.4.1\Projects\palettelock\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86C4ADB-7478-47B5-8130-690F631DE338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C668FB-A1B3-40F7-9658-880A2B928F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C1E853-8D79-44E1-86E5-BDEAA7F657E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>MARIANNE</t>
   </si>
@@ -69,9 +69,6 @@
     <t>CHOICE</t>
   </si>
   <si>
-    <t>I knew it was at huzz</t>
-  </si>
-  <si>
     <t>IT WAS AT PLUZZ?</t>
   </si>
   <si>
@@ -94,6 +91,27 @@
   </si>
   <si>
     <t>tell me[huzz,pluzz,gruzz]</t>
+  </si>
+  <si>
+    <t>JEFF_HUZZ</t>
+  </si>
+  <si>
+    <t>GOTO</t>
+  </si>
+  <si>
+    <t>But what's your name?[GRINGO,MORTIMER,GIBBY]</t>
+  </si>
+  <si>
+    <t>your name is gringo?</t>
+  </si>
+  <si>
+    <t>I knew your mortimer?</t>
+  </si>
+  <si>
+    <t>bitch ass gibby</t>
+  </si>
+  <si>
+    <t>I forgot your name</t>
   </si>
 </sst>
 </file>
@@ -457,11 +475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9628B97A-2D30-47EA-9687-081196DB5F56}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,19 +491,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -612,7 +630,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,13 +644,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +652,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,21 +666,90 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/dialogues.xlsx
+++ b/data/dialogues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Godot\4.4.1\Projects\palettelock\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C668FB-A1B3-40F7-9658-880A2B928F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E4F97-A093-41C2-A699-B3E967FB8E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C1E853-8D79-44E1-86E5-BDEAA7F657E5}"/>
   </bookViews>
@@ -25,56 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
-  <si>
-    <t>MARIANNE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>Oh youve grown quite a bit</t>
-  </si>
-  <si>
     <t>YESNO</t>
   </si>
   <si>
-    <t>Isn't that so?</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>I knew I was right</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
-    <t>I must have been wrong</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>JEFF</t>
-  </si>
-  <si>
-    <t>What the fuzz</t>
-  </si>
-  <si>
-    <t>Where the huzz at?</t>
-  </si>
-  <si>
     <t>CHOICE</t>
   </si>
   <si>
-    <t>IT WAS AT PLUZZ?</t>
-  </si>
-  <si>
-    <t>i didn't think it was at gruzz</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -90,28 +60,76 @@
     <t>ID</t>
   </si>
   <si>
-    <t>tell me[huzz,pluzz,gruzz]</t>
-  </si>
-  <si>
-    <t>JEFF_HUZZ</t>
-  </si>
-  <si>
     <t>GOTO</t>
   </si>
   <si>
-    <t>But what's your name?[GRINGO,MORTIMER,GIBBY]</t>
-  </si>
-  <si>
-    <t>your name is gringo?</t>
-  </si>
-  <si>
-    <t>I knew your mortimer?</t>
-  </si>
-  <si>
-    <t>bitch ass gibby</t>
-  </si>
-  <si>
-    <t>I forgot your name</t>
+    <t>GERTRUD_ENTRY</t>
+  </si>
+  <si>
+    <t>Have you seen &lt;VICTIM&gt;?</t>
+  </si>
+  <si>
+    <t>GERTRUD_C1</t>
+  </si>
+  <si>
+    <t>JET_ENTRY</t>
+  </si>
+  <si>
+    <t>AHMED_ENTRY</t>
+  </si>
+  <si>
+    <t>Have you seen &lt;VICTIM&gt;? He's not been paying rent for two days</t>
+  </si>
+  <si>
+    <t>Have you talked to Jet or Gertrud?[JET,GERTRUD,BOTH]</t>
+  </si>
+  <si>
+    <t>You should go talk to Jet.</t>
+  </si>
+  <si>
+    <t>You should go talk to Gertrud.</t>
+  </si>
+  <si>
+    <t>I haven't seen him in a few days either.</t>
+  </si>
+  <si>
+    <t>Ever since I became a professional knife seller he's been acting weirdly.</t>
+  </si>
+  <si>
+    <t>That's odd.. No one has seen him in days.</t>
+  </si>
+  <si>
+    <t>But I guess I haven't been home much since I took that job as a butcher.</t>
+  </si>
+  <si>
+    <t>Anyway he never really approved of my job as a janitor.</t>
+  </si>
+  <si>
+    <t>If I were you I'd talk to his landlord, he's pretty involved with us.</t>
+  </si>
+  <si>
+    <t>I think I'm gonna need to buy some new garden shears.</t>
+  </si>
+  <si>
+    <t>Maybe I should use the money from selling one shoe for them.</t>
+  </si>
+  <si>
+    <t>These bushes aren't gonna trim themselves!</t>
+  </si>
+  <si>
+    <t>Hi, I'm Gertrud.</t>
+  </si>
+  <si>
+    <t>Good Girl.</t>
+  </si>
+  <si>
+    <t>Look I bet it's one of us three.</t>
+  </si>
+  <si>
+    <t>If you wan't, I stole a kids detective set once, it should be inside.</t>
+  </si>
+  <si>
+    <t>Just don't go in the basement.</t>
   </si>
 </sst>
 </file>
@@ -475,35 +493,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9628B97A-2D30-47EA-9687-081196DB5F56}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -511,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,13 +555,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,7 +569,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,13 +580,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,21 +591,24 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,21 +616,24 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,13 +641,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,21 +652,21 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,13 +674,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,32 +685,32 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,13 +718,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,7 +729,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,13 +743,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,7 +751,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,12 +765,61 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>3</v>
       </c>
     </row>
